--- a/data/Subset1_WithDialogActs/HILLARY LEWIS-WOLFSEN pt 5.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/HILLARY LEWIS-WOLFSEN pt 5.xlsx_with_dialog_acts.xlsx
@@ -811,12 +811,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1115,12 +1115,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1347,12 +1347,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1613,12 +1613,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
